--- a/data/news_data/Research notes.xlsx
+++ b/data/news_data/Research notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neil/Documents/code/Research-Project/data/news_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BFD2A4-B44F-1D44-9703-E6223BEB9A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C9247D-3002-D642-AC0B-E9CE4C136BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="980" windowWidth="25380" windowHeight="16440" xr2:uid="{23C4FC56-9EFE-C949-9BEA-C03EF4214CCB}"/>
+    <workbookView xWindow="3600" yWindow="1560" windowWidth="24460" windowHeight="16440" xr2:uid="{23C4FC56-9EFE-C949-9BEA-C03EF4214CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>There is no correlation at all</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>variables</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
     <tableColumn id="3" xr3:uid="{1C999B7C-A3D4-9646-9AF5-E5DA6AAD4841}" name="Type"/>
     <tableColumn id="4" xr3:uid="{785F3FAB-F742-064A-90EB-F974FC1BCB4A}" name="Correltation anlaysis "/>
     <tableColumn id="5" xr3:uid="{B3B3C8B6-F01E-3B43-AA7C-B510823593ED}" name="Additional Description"/>
-    <tableColumn id="6" xr3:uid="{251EC39F-4603-B642-9E98-7CEEE2802999}" name="Column1"/>
+    <tableColumn id="6" xr3:uid="{251EC39F-4603-B642-9E98-7CEEE2802999}" name="variables"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E24D006-F5FB-3848-A2A8-1DD316CA1702}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
